--- a/doc/excel/干部/[sample_unitPost]干部岗位录入样表.xlsx
+++ b/doc/excel/干部/[sample_unitPost]干部岗位录入样表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fafa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476026DF-F064-44F6-A193-0EA917F57D2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC7501-08DD-4C6A-A24F-6F5224FEEF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>岗位编号</t>
   </si>
@@ -46,58 +46,146 @@
     <t>是否占干部职数</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>党务</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>单位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干部级别</t>
+  </si>
+  <si>
+    <t>任职类型</t>
+  </si>
+  <si>
+    <t>任职日期</t>
+  </si>
+  <si>
+    <t>现任职务始任日期</t>
+  </si>
+  <si>
+    <t>第一主职</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>校领导</t>
+  </si>
+  <si>
+    <t>副局级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>00000201</t>
-  </si>
-  <si>
-    <t>秘书长</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>分管党政日常事务</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>无行政级别</t>
-  </si>
-  <si>
-    <t>党务</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>单位编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京xx大学xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联干部工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现任职干部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导入说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+一、岗位编号、岗位名称和单位编码不可留空；
+二、岗位级别、职务属性、职务类别请按照系统源数据填写；
+三、如果关联干部工号或现任职干部不为空，则更新该干部任职信息；如果系统中已有该干部的第一主职信息，将会进行信息覆盖；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四、请从第二行起录入数据，不留空行，导入前请务必完整删除此段文字说明（同时删除此合并单元格）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -109,18 +197,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,24 +284,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="6" customWidth="1"/>
     <col min="2" max="2" width="41.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
@@ -514,75 +654,309 @@
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="16" max="16" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="C7:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{FEADDFFD-2124-4754-82A4-59C1FA6B7B93}">
+      <formula1>"第一主职,主职,兼职"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/excel/干部/[sample_unitPost]干部岗位录入样表.xlsx
+++ b/doc/excel/干部/[sample_unitPost]干部岗位录入样表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\干部\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC7501-08DD-4C6A-A24F-6F5224FEEF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>fafa</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果关联干部工号或现任职干部不为空，则更新该干部任职信息；如果系统中已有该干部的第一主职信息，将会进行信息覆盖；</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>岗位编号</t>
   </si>
@@ -40,16 +63,10 @@
     <t>职务属性</t>
   </si>
   <si>
-    <t>职务类别</t>
-  </si>
-  <si>
     <t>是否占干部职数</t>
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>党务</t>
   </si>
   <si>
     <t>否</t>
@@ -77,40 +94,10 @@
     <t>第一主职</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>校领导</t>
-  </si>
-  <si>
-    <t>副局级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.06.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京xx大学xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联干部工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,66 +106,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导入说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-一、岗位编号、岗位名称和单位编码不可留空；
-二、岗位级别、职务属性、职务类别请按照系统源数据填写；
-三、如果关联干部工号或现任职干部不为空，则更新该干部任职信息；如果系统中已有该干部的第一主职信息，将会进行信息覆盖；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四、请从第二行起录入数据，不留空行，导入前请务必完整删除此段文字说明（同时删除此合并单元格）。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000004</t>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，与系统内一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，与系统内一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,12 +181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,9 +263,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -637,33 +580,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
     <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
-    <col min="16" max="16" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -685,85 +628,67 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>27</v>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -772,192 +697,92 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C7:I14"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{FEADDFFD-2124-4754-82A4-59C1FA6B7B93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
       <formula1>"第一主职,主职,兼职"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>